--- a/data/pca/factorExposure/factorExposure_2018-12-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +729,118 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.07946760532255338</v>
+        <v>0.05263484427542486</v>
       </c>
       <c r="C2">
-        <v>0.04955930416718076</v>
+        <v>0.02855653435350779</v>
       </c>
       <c r="D2">
-        <v>-0.06498531209303461</v>
+        <v>0.01268974028626696</v>
       </c>
       <c r="E2">
-        <v>-0.00063345484295481</v>
+        <v>-0.03349852690309433</v>
       </c>
       <c r="F2">
-        <v>-0.1166151580347913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1100688283350627</v>
+      </c>
+      <c r="G2">
+        <v>-0.08205673260529499</v>
+      </c>
+      <c r="H2">
+        <v>0.03937288734799853</v>
+      </c>
+      <c r="I2">
+        <v>-0.1046930180397753</v>
+      </c>
+      <c r="J2">
+        <v>-0.02085354580249444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.17715532575713</v>
+        <v>0.1329933916328675</v>
       </c>
       <c r="C3">
-        <v>-0.04339212820629552</v>
+        <v>0.03440400446082345</v>
       </c>
       <c r="D3">
-        <v>-0.1368595635053398</v>
+        <v>0.05808561374457585</v>
       </c>
       <c r="E3">
-        <v>0.05579029295358223</v>
+        <v>0.0257814780366746</v>
       </c>
       <c r="F3">
-        <v>-0.3736934753983446</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3638309222981805</v>
+      </c>
+      <c r="G3">
+        <v>-0.2549318557826256</v>
+      </c>
+      <c r="H3">
+        <v>-0.03475060995130082</v>
+      </c>
+      <c r="I3">
+        <v>-0.4466904548684227</v>
+      </c>
+      <c r="J3">
+        <v>0.1671771378670207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.0729700843125162</v>
+        <v>0.05817133216601594</v>
       </c>
       <c r="C4">
-        <v>0.01399020004952105</v>
+        <v>0.008098363298289139</v>
       </c>
       <c r="D4">
-        <v>-0.0584903623075857</v>
+        <v>0.04337143155673411</v>
       </c>
       <c r="E4">
-        <v>0.05043286297906305</v>
+        <v>-0.04327323115769042</v>
       </c>
       <c r="F4">
-        <v>-0.05993609198461713</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07025908117056022</v>
+      </c>
+      <c r="G4">
+        <v>-0.03178646200469663</v>
+      </c>
+      <c r="H4">
+        <v>0.03219032953787675</v>
+      </c>
+      <c r="I4">
+        <v>-0.06612371568672608</v>
+      </c>
+      <c r="J4">
+        <v>-0.04214953038899376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +857,310 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.001546494953564169</v>
+        <v>0.02799543650417584</v>
       </c>
       <c r="C6">
-        <v>-0.0008479928700272032</v>
+        <v>0.005355118732910049</v>
       </c>
       <c r="D6">
-        <v>0.0002404629524627875</v>
+        <v>0.01574419753062558</v>
       </c>
       <c r="E6">
-        <v>-0.003179781926693542</v>
+        <v>-0.009373918059640163</v>
       </c>
       <c r="F6">
-        <v>0.000567627266249622</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.0150946439209244</v>
+      </c>
+      <c r="G6">
+        <v>0.03293656859864326</v>
+      </c>
+      <c r="H6">
+        <v>-0.004910121841001125</v>
+      </c>
+      <c r="I6">
+        <v>-0.01192761270227555</v>
+      </c>
+      <c r="J6">
+        <v>-0.03531645795993692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.035612090894072</v>
+        <v>0.03067829647777685</v>
       </c>
       <c r="C7">
-        <v>0.01723965215953293</v>
+        <v>-0.02423926765156095</v>
       </c>
       <c r="D7">
-        <v>-0.04132642310440651</v>
+        <v>0.02680132715418951</v>
       </c>
       <c r="E7">
-        <v>0.005248147476521059</v>
+        <v>-0.02483498208723936</v>
       </c>
       <c r="F7">
-        <v>-0.08236690259981767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05150591834496527</v>
+      </c>
+      <c r="G7">
+        <v>-0.03954731082271826</v>
+      </c>
+      <c r="H7">
+        <v>-0.01716035947188626</v>
+      </c>
+      <c r="I7">
+        <v>-0.04780066125015758</v>
+      </c>
+      <c r="J7">
+        <v>-0.05533569097093046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03663600905226044</v>
+        <v>0.01484556687676521</v>
       </c>
       <c r="C8">
-        <v>-0.007160885704225861</v>
+        <v>0.008937463447239617</v>
       </c>
       <c r="D8">
-        <v>-0.04759664358180694</v>
+        <v>0.03948197569254083</v>
       </c>
       <c r="E8">
-        <v>0.04597398413676392</v>
+        <v>-0.01799416354595071</v>
       </c>
       <c r="F8">
-        <v>-0.07501648810212408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0678467576163674</v>
+      </c>
+      <c r="G8">
+        <v>-0.05602771960701583</v>
+      </c>
+      <c r="H8">
+        <v>0.01578438065478326</v>
+      </c>
+      <c r="I8">
+        <v>-0.07152527165560427</v>
+      </c>
+      <c r="J8">
+        <v>-0.009745987176334429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.05981618229658089</v>
+        <v>0.04952668984327893</v>
       </c>
       <c r="C9">
-        <v>0.01935673540880725</v>
+        <v>0.001271800413690523</v>
       </c>
       <c r="D9">
-        <v>-0.04534951977839063</v>
+        <v>0.03585278493664635</v>
       </c>
       <c r="E9">
-        <v>0.06147115737678056</v>
+        <v>-0.03565607036180761</v>
       </c>
       <c r="F9">
-        <v>-0.05336037983317832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0759270213987578</v>
+      </c>
+      <c r="G9">
+        <v>-0.03460646043141415</v>
+      </c>
+      <c r="H9">
+        <v>0.0346807750175938</v>
+      </c>
+      <c r="I9">
+        <v>-0.04483319667428608</v>
+      </c>
+      <c r="J9">
+        <v>-0.04163960803004764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.03905015342411827</v>
+        <v>0.05811194527149478</v>
       </c>
       <c r="C10">
-        <v>0.07749286582506711</v>
+        <v>-0.0674455508084587</v>
       </c>
       <c r="D10">
-        <v>0.1195706953084396</v>
+        <v>-0.1473778468983171</v>
       </c>
       <c r="E10">
-        <v>-0.07901802690318449</v>
+        <v>0.05034729348602822</v>
       </c>
       <c r="F10">
-        <v>-0.05117936327865089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04202970865569202</v>
+      </c>
+      <c r="G10">
+        <v>-0.04675204108181996</v>
+      </c>
+      <c r="H10">
+        <v>0.02946317273632609</v>
+      </c>
+      <c r="I10">
+        <v>-0.01820398559724997</v>
+      </c>
+      <c r="J10">
+        <v>0.06407199494121804</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.04878386433686482</v>
+        <v>0.04128879768374952</v>
       </c>
       <c r="C11">
-        <v>-0.00239378711398805</v>
+        <v>0.02199330535134535</v>
       </c>
       <c r="D11">
-        <v>-0.02862004443372474</v>
+        <v>0.02830786972546651</v>
       </c>
       <c r="E11">
-        <v>0.006898334214405482</v>
+        <v>-0.01177347802764087</v>
       </c>
       <c r="F11">
-        <v>-0.05113569326596465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03896449248291245</v>
+      </c>
+      <c r="G11">
+        <v>-0.00427744566739287</v>
+      </c>
+      <c r="H11">
+        <v>0.01457897059415975</v>
+      </c>
+      <c r="I11">
+        <v>-0.03496552904898856</v>
+      </c>
+      <c r="J11">
+        <v>-0.04839562519918362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04047612469687338</v>
+        <v>0.03868647135741781</v>
       </c>
       <c r="C12">
-        <v>-0.003507418980715084</v>
+        <v>0.01040592536910003</v>
       </c>
       <c r="D12">
-        <v>-0.0250602845101646</v>
+        <v>0.03267220534381407</v>
       </c>
       <c r="E12">
-        <v>0.02620414760003957</v>
+        <v>-0.01464644822959903</v>
       </c>
       <c r="F12">
-        <v>-0.04204346734971435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01831768057424376</v>
+      </c>
+      <c r="G12">
+        <v>-0.002886245795723736</v>
+      </c>
+      <c r="H12">
+        <v>0.00347647872127035</v>
+      </c>
+      <c r="I12">
+        <v>-0.03129350384058668</v>
+      </c>
+      <c r="J12">
+        <v>-0.02695414886468359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.0457618348724523</v>
+        <v>0.03538107662142681</v>
       </c>
       <c r="C13">
-        <v>0.009459053276487212</v>
+        <v>0.02574985495057815</v>
       </c>
       <c r="D13">
-        <v>-0.04613507124514689</v>
+        <v>0.01146990780120519</v>
       </c>
       <c r="E13">
-        <v>-0.01324511405070951</v>
+        <v>-0.009708218124231163</v>
       </c>
       <c r="F13">
-        <v>-0.1094515448728949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.0916930097419546</v>
+      </c>
+      <c r="G13">
+        <v>-0.02905829041473366</v>
+      </c>
+      <c r="H13">
+        <v>0.0133372809186541</v>
+      </c>
+      <c r="I13">
+        <v>-0.1040463331132048</v>
+      </c>
+      <c r="J13">
+        <v>-0.01697860947292168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.02489904583420101</v>
+        <v>0.02050208346270645</v>
       </c>
       <c r="C14">
-        <v>0.01400849114576204</v>
+        <v>0.003318825802303943</v>
       </c>
       <c r="D14">
-        <v>-0.04249993794605514</v>
+        <v>0.01654228649786882</v>
       </c>
       <c r="E14">
-        <v>0.018137729808243</v>
+        <v>-0.02905390551014908</v>
       </c>
       <c r="F14">
-        <v>-0.03686659681053319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03783003184148694</v>
+      </c>
+      <c r="G14">
+        <v>-0.06026080849952842</v>
+      </c>
+      <c r="H14">
+        <v>-0.002804248149886474</v>
+      </c>
+      <c r="I14">
+        <v>-0.0278013800699353</v>
+      </c>
+      <c r="J14">
+        <v>-0.01940888188863766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1177,54 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04137889937371667</v>
+        <v>0.03612949309529158</v>
       </c>
       <c r="C16">
-        <v>-0.005866070485112829</v>
+        <v>0.01681409114144589</v>
       </c>
       <c r="D16">
-        <v>-0.02767359193107145</v>
+        <v>0.03039444547293774</v>
       </c>
       <c r="E16">
-        <v>0.01188786658926001</v>
+        <v>-0.01186196269227128</v>
       </c>
       <c r="F16">
-        <v>-0.03877622502345697</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03405673943189041</v>
+      </c>
+      <c r="G16">
+        <v>-0.006072091373117447</v>
+      </c>
+      <c r="H16">
+        <v>0.005367934514237819</v>
+      </c>
+      <c r="I16">
+        <v>-0.03503638542723912</v>
+      </c>
+      <c r="J16">
+        <v>-0.04642191578715968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1273,118 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05817682387362658</v>
+        <v>0.04453122460785983</v>
       </c>
       <c r="C19">
-        <v>-0.0131333252163924</v>
+        <v>0.0228778488167923</v>
       </c>
       <c r="D19">
-        <v>-0.04293837749447873</v>
+        <v>0.0320795481881412</v>
       </c>
       <c r="E19">
-        <v>0.008474494356608697</v>
+        <v>-0.01475590715087527</v>
       </c>
       <c r="F19">
-        <v>-0.09218209744339805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.08742917154119262</v>
+      </c>
+      <c r="G19">
+        <v>-0.0529004553674404</v>
+      </c>
+      <c r="H19">
+        <v>0.005446325544209229</v>
+      </c>
+      <c r="I19">
+        <v>-0.08342990161479887</v>
+      </c>
+      <c r="J19">
+        <v>-0.02960194432897907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.01640012580560052</v>
+        <v>0.01199026319670983</v>
       </c>
       <c r="C20">
-        <v>0.009389042367757099</v>
+        <v>0.004469432687982841</v>
       </c>
       <c r="D20">
-        <v>-0.0407189177628147</v>
+        <v>0.01698179459662316</v>
       </c>
       <c r="E20">
-        <v>0.03229562836431007</v>
+        <v>-0.01866306075439512</v>
       </c>
       <c r="F20">
-        <v>-0.07197955301503778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.05894632710964694</v>
+      </c>
+      <c r="G20">
+        <v>-0.05535298445929319</v>
+      </c>
+      <c r="H20">
+        <v>-0.01489946291902755</v>
+      </c>
+      <c r="I20">
+        <v>-0.08396263455063994</v>
+      </c>
+      <c r="J20">
+        <v>-0.03897192724598496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.01965237993408057</v>
+        <v>0.02706496524496912</v>
       </c>
       <c r="C21">
-        <v>-0.0120260447164843</v>
+        <v>0.0007549395778064399</v>
       </c>
       <c r="D21">
-        <v>-0.03518700127946641</v>
+        <v>0.02441168650926077</v>
       </c>
       <c r="E21">
-        <v>0.006889169915732548</v>
+        <v>-0.007051335286131759</v>
       </c>
       <c r="F21">
-        <v>-0.0883750953676283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.06664694882152293</v>
+      </c>
+      <c r="G21">
+        <v>-0.03545061237711386</v>
+      </c>
+      <c r="H21">
+        <v>0.04283299493950248</v>
+      </c>
+      <c r="I21">
+        <v>-0.01373619984488367</v>
+      </c>
+      <c r="J21">
+        <v>-0.04286475747724951</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1401,22 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1433,374 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.03817392704183923</v>
+        <v>0.0331667642889011</v>
       </c>
       <c r="C24">
-        <v>-0.004997610880086892</v>
+        <v>0.01409922144144992</v>
       </c>
       <c r="D24">
-        <v>-0.02563687703873016</v>
+        <v>0.02646435916150154</v>
       </c>
       <c r="E24">
-        <v>0.01441487652488348</v>
+        <v>-0.01053120060197881</v>
       </c>
       <c r="F24">
-        <v>-0.04997533686952507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03734051012576464</v>
+      </c>
+      <c r="G24">
+        <v>-0.00323201838293808</v>
+      </c>
+      <c r="H24">
+        <v>0.007485212870689854</v>
+      </c>
+      <c r="I24">
+        <v>-0.0392980000545711</v>
+      </c>
+      <c r="J24">
+        <v>-0.04227157180532495</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.04170759943582406</v>
+        <v>0.04195330809082137</v>
       </c>
       <c r="C25">
-        <v>0.0004610037818757708</v>
+        <v>0.01522131274901605</v>
       </c>
       <c r="D25">
-        <v>-0.02832019683110127</v>
+        <v>0.0263539860444651</v>
       </c>
       <c r="E25">
-        <v>0.01752096220540038</v>
+        <v>-0.01369223224776478</v>
       </c>
       <c r="F25">
-        <v>-0.05268469347932454</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04808472871544035</v>
+      </c>
+      <c r="G25">
+        <v>0.002394685855097105</v>
+      </c>
+      <c r="H25">
+        <v>0.01582357930260088</v>
+      </c>
+      <c r="I25">
+        <v>-0.03608270585904761</v>
+      </c>
+      <c r="J25">
+        <v>-0.03526544921489711</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01888753135191041</v>
+        <v>0.01144734962041492</v>
       </c>
       <c r="C26">
-        <v>-0.007719220650337789</v>
+        <v>0.01670443188666056</v>
       </c>
       <c r="D26">
-        <v>-0.05215026495565875</v>
+        <v>0.02002436678649589</v>
       </c>
       <c r="E26">
-        <v>-0.000698032296146676</v>
+        <v>-0.00435389487184513</v>
       </c>
       <c r="F26">
-        <v>-0.04246114778984651</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04400150516085799</v>
+      </c>
+      <c r="G26">
+        <v>-0.03244108536104573</v>
+      </c>
+      <c r="H26">
+        <v>-0.001646668617008717</v>
+      </c>
+      <c r="I26">
+        <v>-0.04663548730516687</v>
+      </c>
+      <c r="J26">
+        <v>-0.02870105712488382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1048003414654085</v>
+        <v>0.0605160678664495</v>
       </c>
       <c r="C27">
-        <v>0.02978901188518527</v>
+        <v>0.006595360348730879</v>
       </c>
       <c r="D27">
-        <v>-0.04070549075512861</v>
+        <v>0.01616370071685356</v>
       </c>
       <c r="E27">
-        <v>0.03891685469242929</v>
+        <v>-0.02822873128765612</v>
       </c>
       <c r="F27">
-        <v>-0.05302118131344795</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04202186179880669</v>
+      </c>
+      <c r="G27">
+        <v>-0.03787391155453222</v>
+      </c>
+      <c r="H27">
+        <v>0.01023582551389397</v>
+      </c>
+      <c r="I27">
+        <v>-0.02731577418922919</v>
+      </c>
+      <c r="J27">
+        <v>-0.01001261253019159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.05711369060108285</v>
+        <v>0.08664050344337912</v>
       </c>
       <c r="C28">
-        <v>0.1045242004502846</v>
+        <v>-0.1076607219075034</v>
       </c>
       <c r="D28">
-        <v>0.1946738499894398</v>
+        <v>-0.2170941645789805</v>
       </c>
       <c r="E28">
-        <v>-0.1068781716884709</v>
+        <v>0.07034545727969006</v>
       </c>
       <c r="F28">
-        <v>-0.01286311408859921</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01726366671149798</v>
+      </c>
+      <c r="G28">
+        <v>-0.05719081507700464</v>
+      </c>
+      <c r="H28">
+        <v>0.01654362541101082</v>
+      </c>
+      <c r="I28">
+        <v>-0.04641231430966682</v>
+      </c>
+      <c r="J28">
+        <v>0.1058625289071378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02630523797926067</v>
+        <v>0.02148227422115384</v>
       </c>
       <c r="C29">
-        <v>0.00965062714929895</v>
+        <v>0.002055265010557483</v>
       </c>
       <c r="D29">
-        <v>-0.04461825255782846</v>
+        <v>0.01915745249900381</v>
       </c>
       <c r="E29">
-        <v>0.03148880409076692</v>
+        <v>-0.03228329465720442</v>
       </c>
       <c r="F29">
-        <v>-0.01966931017324795</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03188386213226899</v>
+      </c>
+      <c r="G29">
+        <v>-0.05869278927252502</v>
+      </c>
+      <c r="H29">
+        <v>0.00156999593361228</v>
+      </c>
+      <c r="I29">
+        <v>-0.01323890661948154</v>
+      </c>
+      <c r="J29">
+        <v>-0.02964387843806583</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1022479728926246</v>
+        <v>0.08242550027898973</v>
       </c>
       <c r="C30">
-        <v>0.03640893874455238</v>
+        <v>0.06154748655881243</v>
       </c>
       <c r="D30">
-        <v>-0.06814587995417599</v>
+        <v>0.02603405890052693</v>
       </c>
       <c r="E30">
-        <v>0.02271291785241214</v>
+        <v>-0.044493952975301</v>
       </c>
       <c r="F30">
-        <v>-0.109538543204176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.101146757314895</v>
+      </c>
+      <c r="G30">
+        <v>-0.01546375992764742</v>
+      </c>
+      <c r="H30">
+        <v>-0.01025277799480664</v>
+      </c>
+      <c r="I30">
+        <v>-0.03235879500204544</v>
+      </c>
+      <c r="J30">
+        <v>-0.07650918174219823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05828134485722405</v>
+        <v>0.05451156424227862</v>
       </c>
       <c r="C31">
-        <v>0.01299335802483696</v>
+        <v>0.015350762824539</v>
       </c>
       <c r="D31">
-        <v>-0.03483972229813154</v>
+        <v>0.009916497929085843</v>
       </c>
       <c r="E31">
-        <v>-0.0264441343266034</v>
+        <v>-0.02210140627113159</v>
       </c>
       <c r="F31">
-        <v>0.01835164489949221</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.001743185080007953</v>
+      </c>
+      <c r="G31">
+        <v>-0.06447487539040885</v>
+      </c>
+      <c r="H31">
+        <v>0.02830323973320667</v>
+      </c>
+      <c r="I31">
+        <v>-0.008998194915112303</v>
+      </c>
+      <c r="J31">
+        <v>-0.01816416605502821</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.05046865791897637</v>
+        <v>0.03041824935257528</v>
       </c>
       <c r="C32">
-        <v>0.003870725680577771</v>
+        <v>0.003767540206428966</v>
       </c>
       <c r="D32">
-        <v>-0.05312473395272786</v>
+        <v>0.03613817305310904</v>
       </c>
       <c r="E32">
-        <v>0.03623609158264213</v>
+        <v>-0.04447692483041332</v>
       </c>
       <c r="F32">
-        <v>-0.08263298993581966</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08752713586466658</v>
+      </c>
+      <c r="G32">
+        <v>-0.007205206803023405</v>
+      </c>
+      <c r="H32">
+        <v>0.0009847100388406212</v>
+      </c>
+      <c r="I32">
+        <v>-0.05931436948927771</v>
+      </c>
+      <c r="J32">
+        <v>-0.0666451519305505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.04842664563950392</v>
+        <v>0.04297621261275989</v>
       </c>
       <c r="C33">
-        <v>-0.01070893345145343</v>
+        <v>0.0412168979851953</v>
       </c>
       <c r="D33">
-        <v>-0.07452130566390956</v>
+        <v>0.03495859031413735</v>
       </c>
       <c r="E33">
-        <v>0.01612885538317145</v>
+        <v>-0.01121261001604609</v>
       </c>
       <c r="F33">
-        <v>-0.07133857834377245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.06963007633095447</v>
+      </c>
+      <c r="G33">
+        <v>-0.0545545047973099</v>
+      </c>
+      <c r="H33">
+        <v>0.02092560891420519</v>
+      </c>
+      <c r="I33">
+        <v>-0.0434413247829888</v>
+      </c>
+      <c r="J33">
+        <v>-0.04977393982776152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.03886619197091927</v>
+        <v>0.03650881238702425</v>
       </c>
       <c r="C34">
-        <v>0.004007942446167683</v>
+        <v>0.01120860910695496</v>
       </c>
       <c r="D34">
-        <v>-0.03233498883109594</v>
+        <v>0.03176034654448195</v>
       </c>
       <c r="E34">
-        <v>0.01814871339980892</v>
+        <v>-0.02291939633003531</v>
       </c>
       <c r="F34">
-        <v>-0.04243233169196824</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03867956969982209</v>
+      </c>
+      <c r="G34">
+        <v>-0.008655324601852496</v>
+      </c>
+      <c r="H34">
+        <v>0.01187355691581332</v>
+      </c>
+      <c r="I34">
+        <v>-0.03120419780617577</v>
+      </c>
+      <c r="J34">
+        <v>-0.03609764891111745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1817,54 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01392830119697052</v>
+        <v>0.0158257601671733</v>
       </c>
       <c r="C36">
-        <v>0.01239681432056414</v>
+        <v>-0.0023683406349046</v>
       </c>
       <c r="D36">
-        <v>-0.01119595399157649</v>
+        <v>0.002080737589295968</v>
       </c>
       <c r="E36">
-        <v>0.01032982134029627</v>
+        <v>-0.01069227185694244</v>
       </c>
       <c r="F36">
-        <v>-0.02297837409824902</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02504293188964505</v>
+      </c>
+      <c r="G36">
+        <v>-0.03819411507378172</v>
+      </c>
+      <c r="H36">
+        <v>0.01131826161471755</v>
+      </c>
+      <c r="I36">
+        <v>-0.0002959083991930392</v>
+      </c>
+      <c r="J36">
+        <v>-0.02471578045113421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1881,246 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.02104305710320699</v>
+        <v>0.02475348775942384</v>
       </c>
       <c r="C38">
-        <v>0.008086742044385363</v>
+        <v>-0.00318560073545186</v>
       </c>
       <c r="D38">
-        <v>0.01182685902824197</v>
+        <v>0.003834995151047178</v>
       </c>
       <c r="E38">
-        <v>0.00574369772341413</v>
+        <v>-0.003352505843975488</v>
       </c>
       <c r="F38">
-        <v>-0.01231022838574709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.03683738869548073</v>
+      </c>
+      <c r="G38">
+        <v>-0.03945619184383106</v>
+      </c>
+      <c r="H38">
+        <v>0.02645524639556516</v>
+      </c>
+      <c r="I38">
+        <v>0.0127119422323424</v>
+      </c>
+      <c r="J38">
+        <v>-0.0346248983498799</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.05767785951899807</v>
+        <v>0.04403323364487397</v>
       </c>
       <c r="C39">
-        <v>0.002147554235331397</v>
+        <v>0.02949547410004116</v>
       </c>
       <c r="D39">
-        <v>-0.045495401981207</v>
+        <v>0.04206871012450253</v>
       </c>
       <c r="E39">
-        <v>0.005565214283577502</v>
+        <v>-0.02470608483836351</v>
       </c>
       <c r="F39">
-        <v>-0.04266736200907634</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05964497062461203</v>
+      </c>
+      <c r="G39">
+        <v>0.001155804116170435</v>
+      </c>
+      <c r="H39">
+        <v>0.02211443121456842</v>
+      </c>
+      <c r="I39">
+        <v>-0.02517495349905968</v>
+      </c>
+      <c r="J39">
+        <v>-0.07184006710154216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.05212152686574757</v>
+        <v>0.04443109729765138</v>
       </c>
       <c r="C40">
-        <v>0.02196932273687576</v>
+        <v>0.03862964366092253</v>
       </c>
       <c r="D40">
-        <v>-0.07199230653726998</v>
+        <v>0.02246357624027948</v>
       </c>
       <c r="E40">
-        <v>-0.01097969708613227</v>
+        <v>-0.02953955335825198</v>
       </c>
       <c r="F40">
-        <v>-0.0872908225271338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.08012318338609144</v>
+      </c>
+      <c r="G40">
+        <v>-0.03669591586361787</v>
+      </c>
+      <c r="H40">
+        <v>0.01629200404837291</v>
+      </c>
+      <c r="I40">
+        <v>-0.1162266097662386</v>
+      </c>
+      <c r="J40">
+        <v>-0.05457068248259894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.008599486544927445</v>
+        <v>-0.0002531343403524966</v>
       </c>
       <c r="C41">
-        <v>-0.0003149718230021467</v>
+        <v>0.001404579952309455</v>
       </c>
       <c r="D41">
-        <v>-0.02668206811675384</v>
+        <v>0.00129379209104649</v>
       </c>
       <c r="E41">
-        <v>0.01137154979032357</v>
+        <v>-0.007608956674402191</v>
       </c>
       <c r="F41">
-        <v>0.01155409310506471</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003286815823512191</v>
+      </c>
+      <c r="G41">
+        <v>-0.0564657702552007</v>
+      </c>
+      <c r="H41">
+        <v>0.02183220429928721</v>
+      </c>
+      <c r="I41">
+        <v>-0.003036372065656825</v>
+      </c>
+      <c r="J41">
+        <v>-0.01038968458502208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.2840026819060676</v>
+        <v>0.2155153532045166</v>
       </c>
       <c r="C42">
-        <v>-0.8901509969655154</v>
+        <v>0.2032801379946972</v>
       </c>
       <c r="D42">
-        <v>0.1708231634970738</v>
+        <v>0.3326117880036459</v>
       </c>
       <c r="E42">
-        <v>-0.2519113191302492</v>
+        <v>0.8616007723696246</v>
       </c>
       <c r="F42">
-        <v>0.05268241520664246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1766796999400343</v>
+      </c>
+      <c r="G42">
+        <v>-0.0004574180571992851</v>
+      </c>
+      <c r="H42">
+        <v>0.001709447296636342</v>
+      </c>
+      <c r="I42">
+        <v>-0.002658578386489262</v>
+      </c>
+      <c r="J42">
+        <v>-0.007695243722684871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.007493433347333648</v>
+        <v>0.002574879862206722</v>
       </c>
       <c r="C43">
-        <v>0.000399631857959203</v>
+        <v>0.005082533351560224</v>
       </c>
       <c r="D43">
-        <v>-0.02728955490654294</v>
+        <v>0.00189784274660742</v>
       </c>
       <c r="E43">
-        <v>0.005347951558543613</v>
+        <v>-0.005954896353823626</v>
       </c>
       <c r="F43">
-        <v>-0.01979906018013571</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01475854217805247</v>
+      </c>
+      <c r="G43">
+        <v>-0.04332259731022657</v>
+      </c>
+      <c r="H43">
+        <v>0.008264840109876031</v>
+      </c>
+      <c r="I43">
+        <v>-0.01300923742799441</v>
+      </c>
+      <c r="J43">
+        <v>-0.004141825402846311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.02686813253312309</v>
+        <v>0.0184931500801443</v>
       </c>
       <c r="C44">
-        <v>-0.003585969729025406</v>
+        <v>0.01284978796593792</v>
       </c>
       <c r="D44">
-        <v>-0.05976421933091376</v>
+        <v>0.02819803509228444</v>
       </c>
       <c r="E44">
-        <v>0.01973864774540316</v>
+        <v>-0.009072798244997463</v>
       </c>
       <c r="F44">
-        <v>-0.1082029887718235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.1101556432306884</v>
+      </c>
+      <c r="G44">
+        <v>-0.09787668329671531</v>
+      </c>
+      <c r="H44">
+        <v>0.01889826927839306</v>
+      </c>
+      <c r="I44">
+        <v>-0.07307307867272123</v>
+      </c>
+      <c r="J44">
+        <v>-0.01390569467163101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2137,118 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.0290066762784393</v>
+        <v>0.02077590642871088</v>
       </c>
       <c r="C46">
-        <v>0.006378054182817289</v>
+        <v>0.0187019974374176</v>
       </c>
       <c r="D46">
-        <v>-0.05448105226588925</v>
+        <v>0.02450381344654046</v>
       </c>
       <c r="E46">
-        <v>0.01733633760341783</v>
+        <v>-0.03545121636517686</v>
       </c>
       <c r="F46">
-        <v>-0.01701249657014904</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04551657851175029</v>
+      </c>
+      <c r="G46">
+        <v>-0.06338619376237488</v>
+      </c>
+      <c r="H46">
+        <v>2.602967646014872e-05</v>
+      </c>
+      <c r="I46">
+        <v>-0.01744936247607986</v>
+      </c>
+      <c r="J46">
+        <v>-0.02969431520077931</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08409233005840512</v>
+        <v>0.08101023797348642</v>
       </c>
       <c r="C47">
-        <v>0.01717639908688789</v>
+        <v>0.01490556489295453</v>
       </c>
       <c r="D47">
-        <v>-0.03941472507382059</v>
+        <v>0.0205739124968092</v>
       </c>
       <c r="E47">
-        <v>0.01704042801995373</v>
+        <v>-0.03290907570563115</v>
       </c>
       <c r="F47">
-        <v>0.02751066255113937</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02441592880293522</v>
+      </c>
+      <c r="G47">
+        <v>-0.0733259079651381</v>
+      </c>
+      <c r="H47">
+        <v>0.007784810585087601</v>
+      </c>
+      <c r="I47">
+        <v>-0.028979793648883</v>
+      </c>
+      <c r="J47">
+        <v>-0.0206970454211631</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01248517603287974</v>
+        <v>0.01845483732255004</v>
       </c>
       <c r="C48">
-        <v>0.006491194063665754</v>
+        <v>0.004978963102061296</v>
       </c>
       <c r="D48">
-        <v>-0.03204030050757854</v>
+        <v>0.01020190417478924</v>
       </c>
       <c r="E48">
-        <v>0.01313290412305632</v>
+        <v>-0.01526580451409856</v>
       </c>
       <c r="F48">
-        <v>-0.03341116304414212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0282699316880808</v>
+      </c>
+      <c r="G48">
+        <v>-0.0310609078511433</v>
+      </c>
+      <c r="H48">
+        <v>0.00756293339389533</v>
+      </c>
+      <c r="I48">
+        <v>-0.01555093259136359</v>
+      </c>
+      <c r="J48">
+        <v>-0.01533319655514814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2265,86 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08260366198709405</v>
+        <v>0.08016987706493033</v>
       </c>
       <c r="C50">
-        <v>0.00222153416674138</v>
+        <v>0.01058768419309358</v>
       </c>
       <c r="D50">
-        <v>-0.03845744445570075</v>
+        <v>0.03934137827913525</v>
       </c>
       <c r="E50">
-        <v>-0.004269720063901717</v>
+        <v>-0.02394177754192042</v>
       </c>
       <c r="F50">
-        <v>0.009713709258875608</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.008583632028751492</v>
+      </c>
+      <c r="G50">
+        <v>-0.05330684369888805</v>
+      </c>
+      <c r="H50">
+        <v>-0.01585596653446739</v>
+      </c>
+      <c r="I50">
+        <v>0.02088361555017422</v>
+      </c>
+      <c r="J50">
+        <v>-0.03612001624004213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.04040335314829908</v>
+        <v>0.02933420267087895</v>
       </c>
       <c r="C51">
-        <v>0.0003865170472920135</v>
+        <v>0.006272650031796738</v>
       </c>
       <c r="D51">
-        <v>-0.01820743416928517</v>
+        <v>-0.01102295547934985</v>
       </c>
       <c r="E51">
-        <v>-0.03768469966393521</v>
+        <v>0.01143213569937987</v>
       </c>
       <c r="F51">
-        <v>-0.06826993391934831</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.08164820500763412</v>
+      </c>
+      <c r="G51">
+        <v>-0.09011025204665762</v>
+      </c>
+      <c r="H51">
+        <v>0.02686558919963281</v>
+      </c>
+      <c r="I51">
+        <v>-0.04366590403809319</v>
+      </c>
+      <c r="J51">
+        <v>-0.05042829749041736</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2361,310 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1165654115490431</v>
+        <v>0.1089461401572585</v>
       </c>
       <c r="C53">
-        <v>0.01825874471998483</v>
+        <v>0.02761059547239682</v>
       </c>
       <c r="D53">
-        <v>-0.07060259662820334</v>
+        <v>0.04105748491417736</v>
       </c>
       <c r="E53">
-        <v>0.01086754188357899</v>
+        <v>-0.05802464513484152</v>
       </c>
       <c r="F53">
-        <v>0.06886269290202343</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.0547349136822947</v>
+      </c>
+      <c r="G53">
+        <v>-0.02656748958029768</v>
+      </c>
+      <c r="H53">
+        <v>0.008661505675861693</v>
+      </c>
+      <c r="I53">
+        <v>-0.03122718577929806</v>
+      </c>
+      <c r="J53">
+        <v>0.01447855804742744</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02165523171685848</v>
+        <v>0.02383573371231235</v>
       </c>
       <c r="C54">
-        <v>0.02008928145751658</v>
+        <v>-0.003151789762756341</v>
       </c>
       <c r="D54">
-        <v>-0.02582991152554971</v>
+        <v>0.002616147512619098</v>
       </c>
       <c r="E54">
-        <v>0.01636803233079287</v>
+        <v>-0.03048267395156731</v>
       </c>
       <c r="F54">
-        <v>-0.03969905229796202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03307097574459494</v>
+      </c>
+      <c r="G54">
+        <v>-0.06457082458621388</v>
+      </c>
+      <c r="H54">
+        <v>0.009073558979728724</v>
+      </c>
+      <c r="I54">
+        <v>-0.009318631137256556</v>
+      </c>
+      <c r="J54">
+        <v>-0.001207911925673822</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09967237245251122</v>
+        <v>0.08984237160559454</v>
       </c>
       <c r="C55">
-        <v>0.01356677114042728</v>
+        <v>0.009958603580096363</v>
       </c>
       <c r="D55">
-        <v>-0.0208250370175532</v>
+        <v>0.04491235932943265</v>
       </c>
       <c r="E55">
-        <v>0.04287393294623931</v>
+        <v>-0.04346963566476574</v>
       </c>
       <c r="F55">
-        <v>0.02962494480833751</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.0428730071984884</v>
+      </c>
+      <c r="G55">
+        <v>-0.03254211327314675</v>
+      </c>
+      <c r="H55">
+        <v>-0.02653722092969115</v>
+      </c>
+      <c r="I55">
+        <v>-0.001810764271060363</v>
+      </c>
+      <c r="J55">
+        <v>-0.04166638388665988</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1567284405952424</v>
+        <v>0.1527586181358747</v>
       </c>
       <c r="C56">
-        <v>0.07045637019046373</v>
+        <v>0.02228434560892592</v>
       </c>
       <c r="D56">
-        <v>-0.0538614501989837</v>
+        <v>0.03644621212794964</v>
       </c>
       <c r="E56">
-        <v>0.03378267923889489</v>
+        <v>-0.09659192192902834</v>
       </c>
       <c r="F56">
-        <v>0.1150002286984968</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09761111237549627</v>
+      </c>
+      <c r="G56">
+        <v>0.02524861353828329</v>
+      </c>
+      <c r="H56">
+        <v>-0.0147802013409738</v>
+      </c>
+      <c r="I56">
+        <v>-0.01224788729097756</v>
+      </c>
+      <c r="J56">
+        <v>0.02245098664964512</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.06357117699767476</v>
+        <v>0.05355944980588849</v>
       </c>
       <c r="C57">
-        <v>0.01405411230653251</v>
+        <v>0.02928820062723738</v>
       </c>
       <c r="D57">
-        <v>-0.04541047564557857</v>
+        <v>0.01592089038000749</v>
       </c>
       <c r="E57">
-        <v>-0.01255322261787695</v>
+        <v>-0.005785432143630836</v>
       </c>
       <c r="F57">
-        <v>-0.05901598647554249</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.05961568549709678</v>
+      </c>
+      <c r="G57">
+        <v>-0.02573699213472994</v>
+      </c>
+      <c r="H57">
+        <v>0.01197047543248336</v>
+      </c>
+      <c r="I57">
+        <v>-0.03703071479255159</v>
+      </c>
+      <c r="J57">
+        <v>-0.03822146027972417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.2016629027026607</v>
+        <v>0.1925994988744082</v>
       </c>
       <c r="C58">
-        <v>0.01047677413422598</v>
+        <v>0.1446841515657835</v>
       </c>
       <c r="D58">
-        <v>-0.1288249999133832</v>
+        <v>0.06637950245957705</v>
       </c>
       <c r="E58">
-        <v>0.007370930528939041</v>
+        <v>0.004288422895489415</v>
       </c>
       <c r="F58">
-        <v>-0.2621564603010105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3751669063129406</v>
+      </c>
+      <c r="G58">
+        <v>-0.2994516781237917</v>
+      </c>
+      <c r="H58">
+        <v>-0.397359763136169</v>
+      </c>
+      <c r="I58">
+        <v>0.6270417669714188</v>
+      </c>
+      <c r="J58">
+        <v>0.147193301274206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.06240247476114236</v>
+        <v>0.0926808016577112</v>
       </c>
       <c r="C59">
-        <v>0.1175206672258849</v>
+        <v>-0.0781507127618143</v>
       </c>
       <c r="D59">
-        <v>0.1373593460816103</v>
+        <v>-0.1936223018965905</v>
       </c>
       <c r="E59">
-        <v>-0.06901782458627652</v>
+        <v>0.03234891273766914</v>
       </c>
       <c r="F59">
-        <v>-0.02575485038413524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0450730235985453</v>
+      </c>
+      <c r="G59">
+        <v>-0.02718459060938741</v>
+      </c>
+      <c r="H59">
+        <v>0.02159201370200737</v>
+      </c>
+      <c r="I59">
+        <v>-0.006164639136956539</v>
+      </c>
+      <c r="J59">
+        <v>0.04761420966786144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1830965680573309</v>
+        <v>0.1992893020271916</v>
       </c>
       <c r="C60">
-        <v>0.06961668932878513</v>
+        <v>0.04007034758591568</v>
       </c>
       <c r="D60">
-        <v>0.000735142316102654</v>
+        <v>-0.05348134231868185</v>
       </c>
       <c r="E60">
-        <v>-0.08527559589546535</v>
+        <v>-0.01403489417667852</v>
       </c>
       <c r="F60">
-        <v>-0.1544177990907614</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.204690591933991</v>
+      </c>
+      <c r="G60">
+        <v>0.3266146744141212</v>
+      </c>
+      <c r="H60">
+        <v>0.1246749529603418</v>
+      </c>
+      <c r="I60">
+        <v>-0.007620330296622872</v>
+      </c>
+      <c r="J60">
+        <v>-0.009068780884578081</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.03035148606126174</v>
+        <v>0.03398972596651852</v>
       </c>
       <c r="C61">
-        <v>0.002260293175721931</v>
+        <v>0.01492401006050958</v>
       </c>
       <c r="D61">
-        <v>-0.01897075744048779</v>
+        <v>0.02970372296212963</v>
       </c>
       <c r="E61">
-        <v>0.01533916055985441</v>
+        <v>-0.0194003212168867</v>
       </c>
       <c r="F61">
-        <v>-0.03852529743484898</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.03866036370327029</v>
+      </c>
+      <c r="G61">
+        <v>0.008138359617059726</v>
+      </c>
+      <c r="H61">
+        <v>0.01919634248484463</v>
+      </c>
+      <c r="I61">
+        <v>-0.003431210927445007</v>
+      </c>
+      <c r="J61">
+        <v>-0.07298836310807014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2681,246 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.02984466691159146</v>
+        <v>0.02509902846457319</v>
       </c>
       <c r="C63">
-        <v>0.01423670331149801</v>
+        <v>0.01217801017034915</v>
       </c>
       <c r="D63">
-        <v>-0.04085266012485948</v>
+        <v>0.01973566106494114</v>
       </c>
       <c r="E63">
-        <v>0.01419589366022498</v>
+        <v>-0.02228836964444235</v>
       </c>
       <c r="F63">
-        <v>-0.04908901680819288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03025630820731506</v>
+      </c>
+      <c r="G63">
+        <v>-0.04495387701712864</v>
+      </c>
+      <c r="H63">
+        <v>-0.01430439186825834</v>
+      </c>
+      <c r="I63">
+        <v>-0.03443970732433721</v>
+      </c>
+      <c r="J63">
+        <v>-0.02283712362171218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.04943651271572196</v>
+        <v>0.05064662965268457</v>
       </c>
       <c r="C64">
-        <v>0.003252556432615521</v>
+        <v>0.009447709613297882</v>
       </c>
       <c r="D64">
-        <v>-0.04783976947288926</v>
+        <v>0.04080736941597892</v>
       </c>
       <c r="E64">
-        <v>0.05616904981940484</v>
+        <v>-0.02869098580435487</v>
       </c>
       <c r="F64">
-        <v>-0.04978828530348739</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04305626356632854</v>
+      </c>
+      <c r="G64">
+        <v>-0.04386716078432613</v>
+      </c>
+      <c r="H64">
+        <v>0.04694926309479459</v>
+      </c>
+      <c r="I64">
+        <v>-0.06413455744817778</v>
+      </c>
+      <c r="J64">
+        <v>-0.04946802076968188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.001554663250737591</v>
+        <v>0.03154521973782128</v>
       </c>
       <c r="C65">
-        <v>-0.001883558153428019</v>
+        <v>0.005559002132410911</v>
       </c>
       <c r="D65">
-        <v>0.0009881648670928692</v>
+        <v>0.01615841117435781</v>
       </c>
       <c r="E65">
-        <v>-0.003442891447853764</v>
+        <v>-0.00962158061523773</v>
       </c>
       <c r="F65">
-        <v>0.0004489188593191965</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01245309221852067</v>
+      </c>
+      <c r="G65">
+        <v>0.03678650320917704</v>
+      </c>
+      <c r="H65">
+        <v>-0.001108949303428212</v>
+      </c>
+      <c r="I65">
+        <v>-0.01177888229009814</v>
+      </c>
+      <c r="J65">
+        <v>-0.03670301941190383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.0558967574821395</v>
+        <v>0.05259396996899042</v>
       </c>
       <c r="C66">
-        <v>0.01610273807603621</v>
+        <v>0.03911886581347619</v>
       </c>
       <c r="D66">
-        <v>-0.06137069137319062</v>
+        <v>0.04327973581901571</v>
       </c>
       <c r="E66">
-        <v>0.02727203033666696</v>
+        <v>-0.04946228169073136</v>
       </c>
       <c r="F66">
-        <v>-0.08445092338084777</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07262213322444687</v>
+      </c>
+      <c r="G66">
+        <v>0.01839004614733719</v>
+      </c>
+      <c r="H66">
+        <v>0.0114188817370397</v>
+      </c>
+      <c r="I66">
+        <v>-0.06511353072236796</v>
+      </c>
+      <c r="J66">
+        <v>-0.08166749218019503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.03867614966723985</v>
+        <v>0.04262264147872259</v>
       </c>
       <c r="C67">
-        <v>0.01603908682099688</v>
+        <v>-0.003881927602379085</v>
       </c>
       <c r="D67">
-        <v>0.02376299252095482</v>
+        <v>-0.007138907806263483</v>
       </c>
       <c r="E67">
-        <v>-0.008429170324804728</v>
+        <v>-0.004493494945198235</v>
       </c>
       <c r="F67">
-        <v>-0.0198189305218857</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03049828474226943</v>
+      </c>
+      <c r="G67">
+        <v>-0.02165189298510675</v>
+      </c>
+      <c r="H67">
+        <v>0.04687722762398647</v>
+      </c>
+      <c r="I67">
+        <v>0.01683342428253247</v>
+      </c>
+      <c r="J67">
+        <v>-0.04031668945207825</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.07329149837418558</v>
+        <v>0.09095663569363049</v>
       </c>
       <c r="C68">
-        <v>0.1087238413181734</v>
+        <v>-0.09277642481988856</v>
       </c>
       <c r="D68">
-        <v>0.1935938990739355</v>
+        <v>-0.2128752152081336</v>
       </c>
       <c r="E68">
-        <v>-0.1011833238397121</v>
+        <v>0.06315201052628264</v>
       </c>
       <c r="F68">
-        <v>0.01389544931572175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.003739590584008464</v>
+      </c>
+      <c r="G68">
+        <v>-0.03491914446391655</v>
+      </c>
+      <c r="H68">
+        <v>-0.02512728424006122</v>
+      </c>
+      <c r="I68">
+        <v>0.02241734945008092</v>
+      </c>
+      <c r="J68">
+        <v>0.1260669999972445</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07010637884069269</v>
+        <v>0.06704529238280676</v>
       </c>
       <c r="C69">
-        <v>0.02426026504180463</v>
+        <v>0.014459813378483</v>
       </c>
       <c r="D69">
-        <v>-0.02396530972747123</v>
+        <v>0.01395580324492999</v>
       </c>
       <c r="E69">
-        <v>-0.001205393677160522</v>
+        <v>-0.03390041477011245</v>
       </c>
       <c r="F69">
-        <v>0.01260521270719449</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.01004974806147894</v>
+      </c>
+      <c r="G69">
+        <v>-0.05458407997171736</v>
+      </c>
+      <c r="H69">
+        <v>0.01277432787382845</v>
+      </c>
+      <c r="I69">
+        <v>-0.01203661090360567</v>
+      </c>
+      <c r="J69">
+        <v>-0.0582410281603051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2937,278 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.0722379579479189</v>
+        <v>0.08936815302012724</v>
       </c>
       <c r="C71">
-        <v>0.1338987388067818</v>
+        <v>-0.09910542444766297</v>
       </c>
       <c r="D71">
-        <v>0.2415236979561545</v>
+        <v>-0.2358447907611003</v>
       </c>
       <c r="E71">
-        <v>-0.1707485980510364</v>
+        <v>0.08618066214926838</v>
       </c>
       <c r="F71">
-        <v>-0.02468621927685885</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.01909854402545582</v>
+      </c>
+      <c r="G71">
+        <v>-0.03615406206987005</v>
+      </c>
+      <c r="H71">
+        <v>0.009224063185965182</v>
+      </c>
+      <c r="I71">
+        <v>0.01108551418551657</v>
+      </c>
+      <c r="J71">
+        <v>0.07608921000899299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1260222517871528</v>
+        <v>0.1332861837141101</v>
       </c>
       <c r="C72">
-        <v>0.07148561299027639</v>
+        <v>0.03686006820689974</v>
       </c>
       <c r="D72">
-        <v>-0.04701481113794077</v>
+        <v>0.0339326588706572</v>
       </c>
       <c r="E72">
-        <v>0.01947893668666693</v>
+        <v>-0.09455579470045192</v>
       </c>
       <c r="F72">
-        <v>-0.05963957179794046</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.09873064345552972</v>
+      </c>
+      <c r="G72">
+        <v>0.04823965364916716</v>
+      </c>
+      <c r="H72">
+        <v>0.05439517982089462</v>
+      </c>
+      <c r="I72">
+        <v>0.2159855220332341</v>
+      </c>
+      <c r="J72">
+        <v>-0.1476008811524307</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2841424764140699</v>
+        <v>0.2855079153663342</v>
       </c>
       <c r="C73">
-        <v>0.09901462363695267</v>
+        <v>0.07461267307481123</v>
       </c>
       <c r="D73">
-        <v>0.04541931769522183</v>
+        <v>-0.06734283278292888</v>
       </c>
       <c r="E73">
-        <v>-0.1231444199117689</v>
+        <v>0.02582286852443397</v>
       </c>
       <c r="F73">
-        <v>-0.2715738309070626</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2917188822830785</v>
+      </c>
+      <c r="G73">
+        <v>0.4883533413204084</v>
+      </c>
+      <c r="H73">
+        <v>0.1494745910599507</v>
+      </c>
+      <c r="I73">
+        <v>0.07374033662033179</v>
+      </c>
+      <c r="J73">
+        <v>-0.05151623944340945</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1381676248752346</v>
+        <v>0.1364002451944918</v>
       </c>
       <c r="C74">
-        <v>0.01993184395109526</v>
+        <v>0.03306901576042916</v>
       </c>
       <c r="D74">
-        <v>-0.04404337283133731</v>
+        <v>0.04574707135287483</v>
       </c>
       <c r="E74">
-        <v>0.0133657857408978</v>
+        <v>-0.06181089817295606</v>
       </c>
       <c r="F74">
-        <v>0.05838246723680949</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.07672237072147833</v>
+      </c>
+      <c r="G74">
+        <v>0.01143019894753686</v>
+      </c>
+      <c r="H74">
+        <v>-0.005940581402309813</v>
+      </c>
+      <c r="I74">
+        <v>-0.03862453064116379</v>
+      </c>
+      <c r="J74">
+        <v>-0.03386545101125404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2218043469080562</v>
+        <v>0.2381177013756955</v>
       </c>
       <c r="C75">
-        <v>0.07567386770173666</v>
+        <v>0.05422920394882218</v>
       </c>
       <c r="D75">
-        <v>-0.09394781660125764</v>
+        <v>0.03780378746475992</v>
       </c>
       <c r="E75">
-        <v>0.007966495453724985</v>
+        <v>-0.1328102790730339</v>
       </c>
       <c r="F75">
-        <v>0.1457866280732238</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1446927222502865</v>
+      </c>
+      <c r="G75">
+        <v>-0.007629376787052993</v>
+      </c>
+      <c r="H75">
+        <v>-0.001704486302339264</v>
+      </c>
+      <c r="I75">
+        <v>-0.02246452819419541</v>
+      </c>
+      <c r="J75">
+        <v>0.09792425276375287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.253654506273632</v>
+        <v>0.2518525512085812</v>
       </c>
       <c r="C76">
-        <v>0.09763815784301423</v>
+        <v>0.01577248623829421</v>
       </c>
       <c r="D76">
-        <v>-0.05269212699558262</v>
+        <v>0.05071950844805933</v>
       </c>
       <c r="E76">
-        <v>0.06664712400203496</v>
+        <v>-0.1580037068611325</v>
       </c>
       <c r="F76">
-        <v>0.1558273763285043</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1991828310371823</v>
+      </c>
+      <c r="G76">
+        <v>0.0145930650970022</v>
+      </c>
+      <c r="H76">
+        <v>-0.07483472569912458</v>
+      </c>
+      <c r="I76">
+        <v>-0.01125346041838588</v>
+      </c>
+      <c r="J76">
+        <v>0.006725287415544266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1417469339772275</v>
+        <v>0.1015452139349268</v>
       </c>
       <c r="C77">
-        <v>-0.04362183614929723</v>
+        <v>0.04765633992305453</v>
       </c>
       <c r="D77">
-        <v>-0.07393859793354036</v>
+        <v>0.0728579337963796</v>
       </c>
       <c r="E77">
-        <v>0.01191354543804938</v>
+        <v>0.03645309554112838</v>
       </c>
       <c r="F77">
-        <v>-0.2159624597995934</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.1536086446581051</v>
+      </c>
+      <c r="G77">
+        <v>-0.1873705472856426</v>
+      </c>
+      <c r="H77">
+        <v>-0.1234059007570302</v>
+      </c>
+      <c r="I77">
+        <v>-0.2845357606472503</v>
+      </c>
+      <c r="J77">
+        <v>0.1427120309927688</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08269708610302008</v>
+        <v>0.05972866489025828</v>
       </c>
       <c r="C78">
-        <v>-0.02376401880774006</v>
+        <v>0.030360687360994</v>
       </c>
       <c r="D78">
-        <v>-0.08334078958287371</v>
+        <v>0.06164647359520167</v>
       </c>
       <c r="E78">
-        <v>0.04683162424816669</v>
+        <v>-0.02864355647936695</v>
       </c>
       <c r="F78">
-        <v>-0.04650559383973681</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.06991750936101247</v>
+      </c>
+      <c r="G78">
+        <v>-0.03199110633628754</v>
+      </c>
+      <c r="H78">
+        <v>0.009085425703718734</v>
+      </c>
+      <c r="I78">
+        <v>-0.05288625276768216</v>
+      </c>
+      <c r="J78">
+        <v>-0.02355772900708908</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +3225,86 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.1354412462261898</v>
+        <v>0.1529790000043773</v>
       </c>
       <c r="C80">
-        <v>-0.1121053675217887</v>
+        <v>-0.8744953944766417</v>
       </c>
       <c r="D80">
-        <v>0.4771244794838763</v>
+        <v>0.4294698309371121</v>
       </c>
       <c r="E80">
-        <v>0.8371903551197455</v>
+        <v>0.0257520681694845</v>
       </c>
       <c r="F80">
-        <v>-0.06179843057186178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.07117690968894777</v>
+      </c>
+      <c r="G80">
+        <v>0.02297555487662473</v>
+      </c>
+      <c r="H80">
+        <v>0.04843639237754567</v>
+      </c>
+      <c r="I80">
+        <v>0.07348175170660184</v>
+      </c>
+      <c r="J80">
+        <v>0.04244833522474673</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1653868238932402</v>
+        <v>0.1797557549366345</v>
       </c>
       <c r="C81">
-        <v>0.06095173476913938</v>
+        <v>0.02402072639631622</v>
       </c>
       <c r="D81">
-        <v>-0.05575947898117432</v>
+        <v>0.03415620518018402</v>
       </c>
       <c r="E81">
-        <v>0.02864350500038277</v>
+        <v>-0.11083973484681</v>
       </c>
       <c r="F81">
-        <v>0.149592227726577</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1395176621069424</v>
+      </c>
+      <c r="G81">
+        <v>-0.01397305332036298</v>
+      </c>
+      <c r="H81">
+        <v>-0.05066799515138765</v>
+      </c>
+      <c r="I81">
+        <v>-0.0117802905783588</v>
+      </c>
+      <c r="J81">
+        <v>0.04039619909437656</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3321,54 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.0586522914658772</v>
+        <v>0.04704570219803712</v>
       </c>
       <c r="C83">
-        <v>-0.05178325134496098</v>
+        <v>0.03133924885614647</v>
       </c>
       <c r="D83">
-        <v>-0.06605539212259137</v>
+        <v>0.03838641702309596</v>
       </c>
       <c r="E83">
-        <v>0.00510163333725282</v>
+        <v>0.01522592713863649</v>
       </c>
       <c r="F83">
-        <v>-0.0411260966227232</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.05138531057803982</v>
+      </c>
+      <c r="G83">
+        <v>-0.03749104671234275</v>
+      </c>
+      <c r="H83">
+        <v>0.01826939744472219</v>
+      </c>
+      <c r="I83">
+        <v>-0.04613487450479036</v>
+      </c>
+      <c r="J83">
+        <v>-0.06550731632177866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3385,374 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2245991240964397</v>
+        <v>0.2353181652580102</v>
       </c>
       <c r="C85">
-        <v>0.04067100795110568</v>
+        <v>0.05522000710485624</v>
       </c>
       <c r="D85">
-        <v>-0.08062026174693321</v>
+        <v>0.07384085961230152</v>
       </c>
       <c r="E85">
-        <v>0.0570416323617817</v>
+        <v>-0.1248058215845637</v>
       </c>
       <c r="F85">
-        <v>0.182795489245417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1882489118396816</v>
+      </c>
+      <c r="G85">
+        <v>-0.002126875083579049</v>
+      </c>
+      <c r="H85">
+        <v>-0.03474015046844153</v>
+      </c>
+      <c r="I85">
+        <v>-0.03605560386806128</v>
+      </c>
+      <c r="J85">
+        <v>0.0023659538902081</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.02375823977482242</v>
+        <v>0.02012354358495603</v>
       </c>
       <c r="C86">
-        <v>-0.0094845688951076</v>
+        <v>0.01921946624519467</v>
       </c>
       <c r="D86">
-        <v>-0.05984526241057318</v>
+        <v>0.03031069551182012</v>
       </c>
       <c r="E86">
-        <v>0.01682748162599256</v>
+        <v>-0.01718532982223529</v>
       </c>
       <c r="F86">
-        <v>-0.08548358355728426</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08594161794262664</v>
+      </c>
+      <c r="G86">
+        <v>-0.06355219625456796</v>
+      </c>
+      <c r="H86">
+        <v>-0.01096024983566909</v>
+      </c>
+      <c r="I86">
+        <v>-0.05973605008965864</v>
+      </c>
+      <c r="J86">
+        <v>-0.05252854564562524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.0134296684105047</v>
+        <v>0.02372684479652076</v>
       </c>
       <c r="C87">
-        <v>0.02581754465608163</v>
+        <v>-0.006512120120533677</v>
       </c>
       <c r="D87">
-        <v>0.04295403686375068</v>
+        <v>-0.007815662983286032</v>
       </c>
       <c r="E87">
-        <v>-0.02336760867327824</v>
+        <v>0.005913604765740778</v>
       </c>
       <c r="F87">
-        <v>-0.1055895885053384</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1080736534288957</v>
+      </c>
+      <c r="G87">
+        <v>-0.008806654464609437</v>
+      </c>
+      <c r="H87">
+        <v>-0.01704574763781005</v>
+      </c>
+      <c r="I87">
+        <v>-0.05210806678550672</v>
+      </c>
+      <c r="J87">
+        <v>-0.09776386262740508</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.01671513010671051</v>
+        <v>0.03194738204344196</v>
       </c>
       <c r="C88">
-        <v>0.007483665536690837</v>
+        <v>-0.007215259499852649</v>
       </c>
       <c r="D88">
-        <v>0.004741047862753776</v>
+        <v>-0.004247475490059488</v>
       </c>
       <c r="E88">
-        <v>0.02022510011753927</v>
+        <v>-0.009412290439192747</v>
       </c>
       <c r="F88">
-        <v>0.007429305906004866</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.009328890698927339</v>
+      </c>
+      <c r="G88">
+        <v>-0.03590990248822295</v>
+      </c>
+      <c r="H88">
+        <v>0.05660230513723826</v>
+      </c>
+      <c r="I88">
+        <v>-0.002792383599919481</v>
+      </c>
+      <c r="J88">
+        <v>-0.03527540344233803</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.1133952691870849</v>
+        <v>0.1525903257458883</v>
       </c>
       <c r="C89">
-        <v>0.130032290006695</v>
+        <v>-0.125132932914074</v>
       </c>
       <c r="D89">
-        <v>0.2693653457950019</v>
+        <v>-0.3487609935936295</v>
       </c>
       <c r="E89">
-        <v>-0.1838684030044642</v>
+        <v>0.1137606653925417</v>
       </c>
       <c r="F89">
-        <v>-0.005350796597680024</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.004378506251644669</v>
+      </c>
+      <c r="G89">
+        <v>-0.09333670654018418</v>
+      </c>
+      <c r="H89">
+        <v>-0.02196665709159454</v>
+      </c>
+      <c r="I89">
+        <v>-0.05014045473387025</v>
+      </c>
+      <c r="J89">
+        <v>0.2143978230493796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.09825594430080783</v>
+        <v>0.1087351426361134</v>
       </c>
       <c r="C90">
-        <v>0.1265597012836454</v>
+        <v>-0.1218605870591331</v>
       </c>
       <c r="D90">
-        <v>0.2660386446985004</v>
+        <v>-0.2885266342697421</v>
       </c>
       <c r="E90">
-        <v>-0.120226895077417</v>
+        <v>0.09996912962785237</v>
       </c>
       <c r="F90">
-        <v>-0.008507614611235025</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.02346511793925212</v>
+      </c>
+      <c r="G90">
+        <v>-0.05250175512137588</v>
+      </c>
+      <c r="H90">
+        <v>-0.02689438151320397</v>
+      </c>
+      <c r="I90">
+        <v>-0.0319336514722837</v>
+      </c>
+      <c r="J90">
+        <v>0.1670869616006442</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.285511000283628</v>
+        <v>0.2801235019924642</v>
       </c>
       <c r="C91">
-        <v>0.05371668159658438</v>
+        <v>0.06520283433400838</v>
       </c>
       <c r="D91">
-        <v>-0.1179000861110099</v>
+        <v>0.08269425410824437</v>
       </c>
       <c r="E91">
-        <v>0.06718905695558938</v>
+        <v>-0.1395305705821383</v>
       </c>
       <c r="F91">
-        <v>0.252258848869965</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2536822060163243</v>
+      </c>
+      <c r="G91">
+        <v>-0.01438227736607806</v>
+      </c>
+      <c r="H91">
+        <v>-0.07702450099848911</v>
+      </c>
+      <c r="I91">
+        <v>-0.03254038841894233</v>
+      </c>
+      <c r="J91">
+        <v>0.102268923387275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.1320526990257804</v>
+        <v>0.1939391791119934</v>
       </c>
       <c r="C92">
-        <v>0.08308196085007159</v>
+        <v>-0.1412361213198243</v>
       </c>
       <c r="D92">
-        <v>0.3006477454607424</v>
+        <v>-0.2882506205661576</v>
       </c>
       <c r="E92">
-        <v>-0.1208416418689224</v>
+        <v>0.1156037594478032</v>
       </c>
       <c r="F92">
-        <v>0.02935466188469682</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09283860726356186</v>
+      </c>
+      <c r="G92">
+        <v>-0.2004361619317416</v>
+      </c>
+      <c r="H92">
+        <v>-0.05632434665724508</v>
+      </c>
+      <c r="I92">
+        <v>-0.02419502526931935</v>
+      </c>
+      <c r="J92">
+        <v>-0.7892521319159652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.09535632251735504</v>
+        <v>0.1336316179828563</v>
       </c>
       <c r="C93">
-        <v>0.12518349085285</v>
+        <v>-0.1392764237113396</v>
       </c>
       <c r="D93">
-        <v>0.3271465580119999</v>
+        <v>-0.3478934388699791</v>
       </c>
       <c r="E93">
-        <v>-0.1619056118638442</v>
+        <v>0.1505207532479557</v>
       </c>
       <c r="F93">
-        <v>0.05462941756620802</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.04439967236236944</v>
+      </c>
+      <c r="G93">
+        <v>-0.02972949914044385</v>
+      </c>
+      <c r="H93">
+        <v>0.02957304438997041</v>
+      </c>
+      <c r="I93">
+        <v>0.02969786399568498</v>
+      </c>
+      <c r="J93">
+        <v>0.1041063523005407</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2695512211455159</v>
+        <v>0.296026440957559</v>
       </c>
       <c r="C94">
-        <v>0.0945257697382033</v>
+        <v>0.04450139582215928</v>
       </c>
       <c r="D94">
-        <v>0.001579094934814503</v>
+        <v>0.003055438725054746</v>
       </c>
       <c r="E94">
-        <v>0.00639113150610451</v>
+        <v>-0.1423242761822037</v>
       </c>
       <c r="F94">
-        <v>0.22980397473049</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2766567978799035</v>
+      </c>
+      <c r="G94">
+        <v>0.04782353134599784</v>
+      </c>
+      <c r="H94">
+        <v>-0.2313589411426266</v>
+      </c>
+      <c r="I94">
+        <v>-0.04221012167917747</v>
+      </c>
+      <c r="J94">
+        <v>0.05748084350523682</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1485797742875569</v>
+        <v>0.12383752672764</v>
       </c>
       <c r="C95">
-        <v>-0.01583617578874208</v>
+        <v>0.1127367022865169</v>
       </c>
       <c r="D95">
-        <v>-0.2062748074526597</v>
+        <v>0.0410560947526302</v>
       </c>
       <c r="E95">
-        <v>0.03759455977071105</v>
+        <v>-0.06164937907986778</v>
       </c>
       <c r="F95">
-        <v>0.4376309436895661</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.08845952678799987</v>
+      </c>
+      <c r="G95">
+        <v>-0.3430740739216873</v>
+      </c>
+      <c r="H95">
+        <v>0.8112812019612403</v>
+      </c>
+      <c r="I95">
+        <v>0.1810071703451188</v>
+      </c>
+      <c r="J95">
+        <v>0.1300321930278193</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3769,22 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3801,54 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2190122935977872</v>
+        <v>0.2228367216535682</v>
       </c>
       <c r="C98">
-        <v>0.04796082759407598</v>
+        <v>0.04842590075086656</v>
       </c>
       <c r="D98">
-        <v>0.01116273795194246</v>
+        <v>-0.05566503991426566</v>
       </c>
       <c r="E98">
-        <v>-0.09432245840065483</v>
+        <v>0.02369806647195285</v>
       </c>
       <c r="F98">
-        <v>-0.09301255223341322</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2110614409794233</v>
+      </c>
+      <c r="G98">
+        <v>0.340196535534686</v>
+      </c>
+      <c r="H98">
+        <v>0.129978056708431</v>
+      </c>
+      <c r="I98">
+        <v>0.08909870295837363</v>
+      </c>
+      <c r="J98">
+        <v>0.001917899640062809</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3865,22 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3897,145 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.004164806598132407</v>
+        <v>0.01447545338320902</v>
       </c>
       <c r="C101">
-        <v>0.01688877055312131</v>
+        <v>0.009658284841333678</v>
       </c>
       <c r="D101">
-        <v>-0.06465250210043359</v>
+        <v>0.02334845337892028</v>
       </c>
       <c r="E101">
-        <v>0.04107850788490049</v>
+        <v>-0.03963887089797857</v>
       </c>
       <c r="F101">
-        <v>-0.0255347480038641</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.07538599835043701</v>
+      </c>
+      <c r="G101">
+        <v>-0.1052502035397388</v>
+      </c>
+      <c r="H101">
+        <v>-0.04667655640072482</v>
+      </c>
+      <c r="I101">
+        <v>0.09709091935155974</v>
+      </c>
+      <c r="J101">
+        <v>-0.06453233821666814</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.0887551972547144</v>
+        <v>0.1098921196646334</v>
       </c>
       <c r="C102">
-        <v>0.01590215104913513</v>
+        <v>0.01858006869674454</v>
       </c>
       <c r="D102">
-        <v>-0.04427039032642809</v>
+        <v>0.03749648848582484</v>
       </c>
       <c r="E102">
-        <v>0.04101798144067934</v>
+        <v>-0.05850046698672399</v>
       </c>
       <c r="F102">
-        <v>0.08701062458645147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1063882328417425</v>
+      </c>
+      <c r="G102">
+        <v>-0.004616048329295275</v>
+      </c>
+      <c r="H102">
+        <v>-0.01504341166505812</v>
+      </c>
+      <c r="I102">
+        <v>-0.02358002565120296</v>
+      </c>
+      <c r="J102">
+        <v>0.04629775122469122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01767819703954836</v>
+        <v>0.02540496283757223</v>
       </c>
       <c r="C103">
-        <v>0.009247653490606239</v>
+        <v>-0.003422591460201625</v>
       </c>
       <c r="D103">
-        <v>-0.003254880042722462</v>
+        <v>0.01102397123201636</v>
       </c>
       <c r="E103">
-        <v>0.006097355208292009</v>
+        <v>-0.01833609835622766</v>
       </c>
       <c r="F103">
-        <v>0.019391215046818</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01944362084622262</v>
+      </c>
+      <c r="G103">
+        <v>-0.01480905961211523</v>
+      </c>
+      <c r="H103">
+        <v>-0.003167504943705567</v>
+      </c>
+      <c r="I103">
+        <v>-0.01885332738872377</v>
+      </c>
+      <c r="J103">
+        <v>0.00535513252440935</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.008735233757517313</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.01973484685581742</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.01102296040127517</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02185534625295262</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.01581659996796513</v>
+      </c>
+      <c r="G104">
+        <v>0.2207473049789338</v>
+      </c>
+      <c r="H104">
+        <v>-0.07519323552780627</v>
+      </c>
+      <c r="I104">
+        <v>-0.2968932650153909</v>
+      </c>
+      <c r="J104">
+        <v>0.1014050717266385</v>
       </c>
     </row>
   </sheetData>
